--- a/docs/JSON仕様.xlsx
+++ b/docs/JSON仕様.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BCCE70DD-9A4C-494F-AACB-74E13A6F05A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3F1D24A8-85E1-4B65-98DA-9E04C9076CAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="4" r:id="rId1"/>
@@ -14,6 +14,10 @@
     <sheet name="GetCharacterList" sheetId="6" r:id="rId4"/>
     <sheet name="CreateCharacter" sheetId="7" r:id="rId5"/>
     <sheet name="DeleteCharacter" sheetId="8" r:id="rId6"/>
+    <sheet name="GetHaveItem" sheetId="12" r:id="rId7"/>
+    <sheet name="GetAreaNpc" sheetId="10" r:id="rId8"/>
+    <sheet name="GetNpc" sheetId="11" r:id="rId9"/>
+    <sheet name="GetShop" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="77">
   <si>
     <t>JSON論理名</t>
     <rPh sb="4" eb="6">
@@ -301,6 +305,187 @@
     <rPh sb="2" eb="4">
       <t>ヨウイン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetShopMessage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商店取得</t>
+    <rPh sb="0" eb="2">
+      <t>ショウテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetAreaNpc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域内NPC取得</t>
+    <rPh sb="0" eb="3">
+      <t>チイキナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>npc_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list[int]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x, y, z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shop_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買取一覧</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sale_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purchase_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>limit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetNpcMessage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NPC取得</t>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetHaveItemMessage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持アイテム一覧取得</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>note</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -695,7 +880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C79A284-31D5-4E60-BC72-B1CAC9F59AA8}">
   <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -1698,12 +1883,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D775F555-A06E-43A6-A144-D6A0BD8D589A}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DC904D-5DB8-4EB6-8D4A-237C5CB3FF16}">
   <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="C5" sqref="C5:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
@@ -1716,7 +1901,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1756,7 +1941,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1863,21 +2048,21 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
       <c r="M5" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
@@ -1909,28 +2094,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="P6" s="2"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -2334,21 +2511,21 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
@@ -2380,26 +2557,28 @@
         <v>2</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
       <c r="M19" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="2"/>
+      <c r="P19" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -2426,19 +2605,27 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="2"/>
+      <c r="P20" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -2465,21 +2652,31 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="2"/>
+      <c r="P21" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q21" s="3"/>
-      <c r="R21" s="2"/>
+      <c r="R21" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -2503,22 +2700,32 @@
         <v>5</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="2"/>
+      <c r="P22" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q22" s="3"/>
-      <c r="R22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -2543,19 +2750,27 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="2"/>
+      <c r="P23" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -2582,19 +2797,27 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="2"/>
+      <c r="M24" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -2621,19 +2844,27 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="2"/>
+      <c r="M25" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="2"/>
+      <c r="P25" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -2739,12 +2970,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D47BDD1-8DF2-452A-8BF1-91219734DD1B}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D775F555-A06E-43A6-A144-D6A0BD8D589A}">
   <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:P18"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
@@ -2757,7 +2988,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2797,7 +3028,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2903,20 +3134,28 @@
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -2942,20 +3181,28 @@
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -3405,17 +3652,23 @@
         <v>2</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
       <c r="P19" s="2"/>
@@ -3758,12 +4011,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0432CCC-33B6-4105-8480-4E0D2807A455}">
-  <dimension ref="A1:AH28"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D47BDD1-8DF2-452A-8BF1-91219734DD1B}">
+  <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
@@ -3776,7 +4029,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3816,7 +4069,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4378,6 +4631,1025 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="3"/>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="1">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())), -1, 0)+1</f>
+        <v>2</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="3"/>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="1">
+        <f t="shared" ref="A20:A26" ca="1" si="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())), -1, 0)+1</f>
+        <v>3</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="3"/>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="3"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="3"/>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="3"/>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="3"/>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="3"/>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="3"/>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A16:Q16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0432CCC-33B6-4105-8480-4E0D2807A455}">
+  <dimension ref="A1:AH28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="3"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="3"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="1">
+        <f t="shared" ref="A6:A13" ca="1" si="0">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())), -1, 0)+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="3"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="3"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="3"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="3"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="3"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="3"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="3"/>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="3"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="3"/>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="2"/>
@@ -5887,7 +7159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42ACE480-ED6C-444C-B7E3-809FC83734ED}">
   <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -6914,4 +8186,3141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312AE9A4-F937-4D5D-A520-8C7A5994B8B7}">
+  <dimension ref="A1:AH27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="3"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="3"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="1">
+        <f t="shared" ref="A6:A13" ca="1" si="0">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())), -1, 0)+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="3"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="3"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="3"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="3"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="3"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="3"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="3"/>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="3"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="3"/>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="3"/>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="1">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())), -1, 0)+1</f>
+        <v>2</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="3"/>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="1">
+        <f t="shared" ref="A20:A26" ca="1" si="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())), -1, 0)+1</f>
+        <v>3</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="3"/>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="3"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="3"/>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="3"/>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="3"/>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="3"/>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="3"/>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A16:Q16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A22D6C3-2D2C-42A3-AB7C-E3EB6988E6AD}">
+  <dimension ref="A1:AH27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="3"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="3"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="1">
+        <f t="shared" ref="A6:A13" ca="1" si="0">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())), -1, 0)+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="3"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="3"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="3"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="3"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="3"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="3"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="3"/>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="3"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="3"/>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="3"/>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="1">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())), -1, 0)+1</f>
+        <v>2</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="3"/>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="1">
+        <f t="shared" ref="A20:A26" ca="1" si="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())), -1, 0)+1</f>
+        <v>3</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="3"/>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="3"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="3"/>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="3"/>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="3"/>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="3"/>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="3"/>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A16:Q16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B452D3-9C9B-4F2E-95F4-2A1B23DF541F}">
+  <dimension ref="A1:AH27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="3"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="3"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="1">
+        <f t="shared" ref="A6:A13" ca="1" si="0">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())), -1, 0)+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="3"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="3"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="3"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="3"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="3"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="3"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="3"/>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="3"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="3"/>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="3"/>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="1">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())), -1, 0)+1</f>
+        <v>2</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="3"/>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="1">
+        <f t="shared" ref="A20:A26" ca="1" si="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())), -1, 0)+1</f>
+        <v>3</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="3"/>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="3"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="3"/>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="3"/>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="3"/>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="3"/>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="3"/>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A16:Q16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>